--- a/result.xlsx
+++ b/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohsensamiei/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohsensamiei/Projects/fibonacci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D3401A8-FDE6-2F4E-AFDD-570A8BD6907C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B0483C-D69B-234B-B985-B39ADDF87B0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18960" xr2:uid="{0F5F9474-9429-E54A-B139-FA2F6BDF4968}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>nodejs</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>c++</t>
+  </si>
+  <si>
+    <t>java</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>go</c:v>
+                  <c:v>java</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -203,44 +206,11 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$9</c:f>
@@ -263,13 +233,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>593</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6565</c:v>
+                  <c:v>4944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -289,7 +259,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>c++</c:v>
+                  <c:v>go</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -303,39 +273,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$9</c:f>
@@ -355,16 +292,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>761</c:v>
+                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8402</c:v>
+                  <c:v>6565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,7 +321,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nodejs</c:v>
+                  <c:v>c++</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -398,39 +335,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$9</c:f>
@@ -447,19 +351,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1059</c:v>
+                  <c:v>761</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11692</c:v>
+                  <c:v>8402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,7 +383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dotnet</c:v>
+                  <c:v>nodejs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -493,39 +397,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$9</c:f>
@@ -533,7 +404,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -542,19 +413,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>373</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4038</c:v>
+                  <c:v>1059</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44930</c:v>
+                  <c:v>11692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,7 +445,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>python</c:v>
+                  <c:v>dotnet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -588,39 +459,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$2:$F$9</c:f>
@@ -628,28 +466,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>334</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>3654</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40751</c:v>
+                  <c:v>4038</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300000</c:v>
+                  <c:v>44930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,6 +495,68 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1D5C-F84A-BFEB-85C16F4410FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4D8-8349-B613-29F6447BC068}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1435,15 +1335,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>113394</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>468691</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>355297</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>83155</xdr:rowOff>
+      <xdr:rowOff>90714</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1768,35 +1668,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3F61FF-396D-CA40-9311-0B540968DE25}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="168" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1810,13 +1713,16 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1835,8 +1741,11 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1853,10 +1762,13 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>25</v>
       </c>
@@ -1867,16 +1779,19 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1884,75 +1799,87 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>35</v>
       </c>
       <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
         <v>59</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>72</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>99</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>373</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3654</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>40</v>
       </c>
       <c r="B8">
+        <v>448</v>
+      </c>
+      <c r="C8">
         <v>593</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>761</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1059</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4038</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>40751</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9">
+        <v>4944</v>
+      </c>
+      <c r="C9">
         <v>6565</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8402</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>11692</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>44930</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>300000</v>
       </c>
     </row>
